--- a/PartSearch/assets/PartInfoDatabaseAddress.xlsx
+++ b/PartSearch/assets/PartInfoDatabaseAddress.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/PartSearch/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/PartSearch/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{126D9455-A5F2-4F83-9C48-3A98276212B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3D126F-94A1-4848-A48B-6C935B8C6B94}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4F5955AC440C1965081BF3968FB1BE5359B373EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4A6C69-53E9-4DC4-92E1-8DE52C8217D4}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3848" windowWidth="17055" windowHeight="10432" xr2:uid="{164004C6-5443-48C8-ACA4-96D1960AD776}"/>
+    <workbookView xWindow="34" yWindow="34" windowWidth="20726" windowHeight="7989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,22 +25,22 @@
     <t>No</t>
   </si>
   <si>
+    <t>Computer Name</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
     <t>File Location</t>
   </si>
   <si>
-    <t>File Name</t>
+    <t>P1-PW01BTV3</t>
   </si>
   <si>
     <t>Part Number Tracking.xlsx</t>
   </si>
   <si>
     <t>C:\Users\IsaoYoneda\Perforce\iyoneda\referenceTechLibDepot\Part Information\Part Number Tracking.xlsx</t>
-  </si>
-  <si>
-    <t>Computer Name</t>
-  </si>
-  <si>
-    <t>P1-PW01BTV3</t>
   </si>
   <si>
     <t>ISAO-SURFACEBOO</t>
@@ -157,10 +141,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,51 +439,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1346982-9AC6-4FC5-9103-838DCF2DE993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="114.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.07421875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -511,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -519,6 +500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>